--- a/static/xlsx/学生成绩表.xlsx
+++ b/static/xlsx/学生成绩表.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,7 +433,7 @@
         <v>Java</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -452,77 +452,91 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>202000743</v>
+        <v>1111</v>
       </c>
       <c r="B6" t="str">
-        <v>蔡肖筱</v>
+        <v>余凯赢</v>
       </c>
       <c r="C6" t="str">
-        <v>计算机基础</v>
+        <v>Java</v>
       </c>
       <c r="D6">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>202001016</v>
+        <v>202000743</v>
       </c>
       <c r="B7" t="str">
-        <v>吴泽诚</v>
+        <v>蔡肖筱</v>
       </c>
       <c r="C7" t="str">
         <v>计算机基础</v>
       </c>
       <c r="D7">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>202001877</v>
+        <v>202001016</v>
       </c>
       <c r="B8" t="str">
-        <v>李熙</v>
+        <v>吴泽诚</v>
       </c>
       <c r="C8" t="str">
         <v>计算机基础</v>
       </c>
       <c r="D8">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>202002103</v>
+        <v>202001877</v>
       </c>
       <c r="B9" t="str">
-        <v>林菁</v>
+        <v>李熙</v>
       </c>
       <c r="C9" t="str">
         <v>计算机基础</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>202002105</v>
+        <v>202002103</v>
       </c>
       <c r="B10" t="str">
-        <v>黄垄生</v>
+        <v>林菁</v>
       </c>
       <c r="C10" t="str">
         <v>计算机基础</v>
       </c>
       <c r="D10">
-        <v>97</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>202002105</v>
+      </c>
+      <c r="B11" t="str">
+        <v>黄垄生</v>
+      </c>
+      <c r="C11" t="str">
+        <v>计算机基础</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D11"/>
   </ignoredErrors>
 </worksheet>
 </file>